--- a/data/trans_bre/CoTrAQ_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.12972865861475</v>
+        <v>-17.9696459355967</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.91770666822809</v>
+        <v>-23.00281708153692</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2194155736879105</v>
+        <v>-0.2257436139474921</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4429518330632316</v>
+        <v>-0.4619922811567487</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.231672902193647</v>
+        <v>4.551498565624501</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.150595591076163</v>
+        <v>6.425297422771203</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.06064481812244527</v>
+        <v>0.06327240898911482</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1663269974080028</v>
+        <v>0.1636540389220137</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.31415996161408</v>
+        <v>-11.41030945680442</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.909181792358456</v>
+        <v>-9.177109603466073</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1655994370025307</v>
+        <v>-0.1665547545371391</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1682570434731145</v>
+        <v>-0.1750888423498973</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.9908323050274349</v>
+        <v>-0.7645078255334006</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.043069946557318</v>
+        <v>1.582825594038795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01424507287760983</v>
+        <v>-0.01316315729396701</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02092018384106242</v>
+        <v>0.0309832938023526</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.6644509549758</v>
+        <v>-14.16833314600988</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.62738133232206</v>
+        <v>-17.01419525829188</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1631483372850693</v>
+        <v>-0.166613336787903</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2380409398000608</v>
+        <v>-0.2378166242770043</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.458786589310058</v>
+        <v>1.205166684936212</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.009157989793031</v>
+        <v>-1.371034608373144</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.01908506037019801</v>
+        <v>0.01665051283261998</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.01598475955319695</v>
+        <v>-0.02011857419439144</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.04914005527343</v>
+        <v>-9.491784700356071</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.345941727233413</v>
+        <v>-8.361381792980724</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1396127330044299</v>
+        <v>-0.1303776157333087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1505939149871347</v>
+        <v>-0.1493716731187015</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.559810106462656</v>
+        <v>-1.383665741459656</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.4822242271906349</v>
+        <v>-0.5206042094136125</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02340514703329592</v>
+        <v>-0.02013895894244664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.009214401205436106</v>
+        <v>-0.008427563301943563</v>
       </c>
     </row>
     <row r="16">
